--- a/Пример отчета по продажам.xlsx
+++ b/Пример отчета по продажам.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6959915B-92C1-48C0-99C4-58018FB9AB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DB1FB3-F887-4409-9064-2EA35F7324E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Магазин</t>
   </si>
@@ -94,6 +94,42 @@
   </si>
   <si>
     <t>Екатеринбург</t>
+  </si>
+  <si>
+    <t>Январь</t>
+  </si>
+  <si>
+    <t>Февраль</t>
+  </si>
+  <si>
+    <t>Март</t>
+  </si>
+  <si>
+    <t>Апрель</t>
+  </si>
+  <si>
+    <t>Май</t>
+  </si>
+  <si>
+    <t>Июнь</t>
+  </si>
+  <si>
+    <t>Июль</t>
+  </si>
+  <si>
+    <t>Август</t>
+  </si>
+  <si>
+    <t>Сентябрь</t>
+  </si>
+  <si>
+    <t>Октябрь</t>
+  </si>
+  <si>
+    <t>Ноябрь</t>
+  </si>
+  <si>
+    <t>Декабрь</t>
   </si>
 </sst>
 </file>
@@ -104,7 +140,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +166,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,11 +182,39 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -152,14 +223,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -183,15 +258,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1109870</xdr:colOff>
+      <xdr:colOff>41413</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>149087</xdr:rowOff>
+      <xdr:rowOff>132522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>107675</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>132522</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>588065</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -206,8 +281,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2194892" y="3387587"/>
-          <a:ext cx="4704522" cy="745435"/>
+          <a:off x="1126435" y="3371022"/>
+          <a:ext cx="3843130" cy="1292087"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -521,812 +596,827 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="C1" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2">
+        <v>2022</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
-        <v>44197</v>
-      </c>
-      <c r="D1" s="3">
-        <v>44228</v>
-      </c>
-      <c r="E1" s="3">
-        <v>44256</v>
-      </c>
-      <c r="F1" s="3">
-        <v>44287</v>
-      </c>
-      <c r="G1" s="3">
-        <v>44317</v>
-      </c>
-      <c r="H1" s="3">
-        <v>44348</v>
-      </c>
-      <c r="I1" s="3">
-        <v>44378</v>
-      </c>
-      <c r="J1" s="3">
-        <v>44409</v>
-      </c>
-      <c r="K1" s="3">
-        <v>44440</v>
-      </c>
-      <c r="L1" s="3">
-        <v>44470</v>
-      </c>
-      <c r="M1" s="3">
-        <v>44501</v>
-      </c>
-      <c r="N1" s="3">
-        <v>44531</v>
-      </c>
-      <c r="O1" s="3">
-        <v>44562</v>
-      </c>
-      <c r="P1" s="3">
-        <v>44593</v>
-      </c>
-      <c r="Q1" s="3">
-        <v>44621</v>
-      </c>
-      <c r="R1" s="3">
-        <v>44652</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="6">
         <v>223136.8</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="6">
         <v>71468.3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="6">
         <v>67808.800000000003</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F3" s="6">
         <v>80236.600000000006</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G3" s="6">
         <v>140055.9</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H3" s="6">
         <v>149005.70000000001</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I3" s="6">
         <v>72591.100000000006</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J3" s="6">
         <v>248588.1</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K3" s="6">
         <v>196562.4</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L3" s="6">
         <v>63591.3</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M3" s="6">
         <v>151908.79999999999</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N3" s="6">
         <v>176571.9</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O3" s="6">
         <v>145645.79999999999</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P3" s="6">
         <v>148137.4</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q3" s="6">
         <v>108725.3</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R3" s="6">
         <v>81703.399999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="1">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6">
         <v>83858.3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="6">
         <v>157603.9</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="6">
         <v>133702.9</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F4" s="6">
         <v>182712.7</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G4" s="6">
         <v>202231.7</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H4" s="6">
         <v>192813.1</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I4" s="6">
         <v>200258.3</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J4" s="6">
         <v>145286.5</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K4" s="6">
         <v>118943.4</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L4" s="6">
         <v>122496.2</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M4" s="6">
         <v>185623</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N4" s="6">
         <v>83547.7</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O4" s="6">
         <v>124011</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P4" s="6">
         <v>175153.8</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q4" s="6">
         <v>61343.5</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R4" s="6">
         <v>97385</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="1">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6">
         <v>87334.7</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="6">
         <v>203041</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="6">
         <v>187996.7</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F5" s="6">
         <v>132088</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G5" s="6">
         <v>179314.1</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H5" s="6">
         <v>133267</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I5" s="6">
         <v>102820.6</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J5" s="6">
         <v>209131</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K5" s="6">
         <v>207523.9</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L5" s="6">
         <v>210049.5</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M5" s="6">
         <v>197688.6</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N5" s="6">
         <v>122383.7</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O5" s="6">
         <v>79015.3</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P5" s="6">
         <v>98607</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q5" s="6">
         <v>225299.5</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R5" s="6">
         <v>225535.9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="1">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6">
         <v>160228.70000000001</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="6">
         <v>64169.3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="6">
         <v>80866.5</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F6" s="6">
         <v>244842.3</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G6" s="6">
         <v>177271.9</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H6" s="6">
         <v>110794.7</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I6" s="6">
         <v>206154.6</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J6" s="6">
         <v>111393.2</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K6" s="6">
         <v>241889.1</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L6" s="6">
         <v>67042.100000000006</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M6" s="6">
         <v>157462.1</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N6" s="6">
         <v>222799.9</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O6" s="6">
         <v>172322.8</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P6" s="6">
         <v>87201.9</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q6" s="6">
         <v>203237.1</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R6" s="6">
         <v>206652.9</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6">
         <v>121360.1</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L7" s="6">
         <v>108535.9</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M7" s="6">
         <v>143351.5</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N7" s="6">
         <v>72567.100000000006</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O7" s="6">
         <v>246565.4</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P7" s="6">
         <v>223534.6</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q7" s="6">
         <v>153738.6</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R7" s="6">
         <v>211246.8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="6">
         <v>231022.6</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="6">
         <v>70564</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="6">
         <v>241650.7</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="6">
         <v>182241.9</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G8" s="6">
         <v>80331.5</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H8" s="6">
         <v>240969.1</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I8" s="6">
         <v>100912.2</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J8" s="6">
         <v>246871.1</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K8" s="6">
         <v>79456.899999999994</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L8" s="6">
         <v>199849.2</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M8" s="6">
         <v>84563.3</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N8" s="6">
         <v>130801.2</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O8" s="6">
         <v>163787.4</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P8" s="6">
         <v>242734</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q8" s="6">
         <v>134344.6</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R8" s="6">
         <v>131153</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="1">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6">
         <v>137711.29999999999</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="6">
         <v>111094.1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="6">
         <v>50861.3</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F9" s="6">
         <v>211605.1</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G9" s="6">
         <v>73575.8</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H9" s="6">
         <v>139861.70000000001</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I9" s="6">
         <v>230232.6</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J9" s="6">
         <v>146350.5</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K9" s="6">
         <v>99891.1</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L9" s="6">
         <v>120134.3</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M9" s="6">
         <v>175908.5</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N9" s="6">
         <v>90336.2</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O9" s="6">
         <v>95782.9</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P9" s="6">
         <v>148424.5</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q9" s="6">
         <v>105463.5</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R9" s="6">
         <v>118944.7</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="1">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6">
         <v>85541.7</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="6">
         <v>243545</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="6">
         <v>156102</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F10" s="6">
         <v>203637.8</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G10" s="6">
         <v>99181.2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H10" s="6">
         <v>136333.1</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I10" s="6">
         <v>123876.5</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J10" s="6">
         <v>96756.4</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K10" s="6">
         <v>141172.4</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L10" s="6">
         <v>106843.9</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M10" s="6">
         <v>182121.1</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N10" s="6">
         <v>176626.2</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O10" s="6">
         <v>52859.7</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P10" s="6">
         <v>136947.5</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q10" s="6">
         <v>247731.3</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R10" s="6">
         <v>139869.29999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="6">
         <v>119872.7</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
         <v>222035.5</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G11" s="6">
         <v>178606.1</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H11" s="6">
         <v>231687.4</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I11" s="6">
         <v>133278.9</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J11" s="6">
         <v>158791.29999999999</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K11" s="6">
         <v>141121.29999999999</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L11" s="6">
         <v>247488.5</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M11" s="6">
         <v>212711.6</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N11" s="6">
         <v>223128.2</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O11" s="6">
         <v>168010.1</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P11" s="6">
         <v>152205.9</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q11" s="6">
         <v>139345.79999999999</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R11" s="6">
         <v>137045.4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="1">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6">
         <v>208154.8</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
         <v>234435.5</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G12" s="6">
         <v>101311</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H12" s="6">
         <v>211983.9</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I12" s="6">
         <v>160538.5</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J12" s="6">
         <v>223779.5</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K12" s="6">
         <v>147929.70000000001</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L12" s="6">
         <v>213341.9</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M12" s="6">
         <v>229449.5</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N12" s="6">
         <v>147340.20000000001</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O12" s="6">
         <v>153795.70000000001</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P12" s="6">
         <v>67358.2</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q12" s="6">
         <v>136466.4</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R12" s="6">
         <v>190254.9</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="6">
         <v>183338.1</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="6">
         <v>202666</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="6">
         <v>162526.1</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="6">
         <v>224403.9</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G13" s="6">
         <v>197530.6</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H13" s="6">
         <v>216082.5</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="1">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6">
         <v>186553.7</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="6">
         <v>246913.9</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="6">
         <v>140114.4</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F14" s="6">
         <v>207952.1</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G14" s="6">
         <v>79701.899999999994</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H14" s="6">
         <v>247084.2</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I14" s="6">
         <v>216683.9</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J14" s="6">
         <v>241608.8</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K14" s="6">
         <v>51455.8</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L14" s="6">
         <v>179867.8</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M14" s="6">
         <v>50746.400000000001</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N14" s="6">
         <v>60448.2</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O14" s="6">
         <v>119839.9</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P14" s="6">
         <v>109795.5</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q14" s="6">
         <v>70360.100000000006</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R14" s="6">
         <v>147200.4</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="1">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6">
         <v>87996.1</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="6">
         <v>176237.2</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="6">
         <v>79026.5</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F15" s="6">
         <v>212543.8</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G15" s="6">
         <v>87013.6</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H15" s="6">
         <v>245677.1</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I15" s="6">
         <v>112403.8</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J15" s="6">
         <v>203685.2</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K15" s="6">
         <v>218542.3</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L15" s="6">
         <v>228723.5</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M15" s="6">
         <v>223177.5</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N15" s="6">
         <v>220039.9</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O15" s="6">
         <v>77618.899999999994</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P15" s="6">
         <v>186968.9</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q15" s="6">
         <v>219339.8</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R15" s="6">
         <v>220847.1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="1">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6">
         <v>175531.4</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="6">
         <v>104470.1</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E16" s="6">
         <v>87024.5</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F16" s="6">
         <v>146402.20000000001</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G16" s="6">
         <v>63718.1</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H16" s="6">
         <v>249667.20000000001</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I16" s="6">
         <v>104033.2</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J16" s="6">
         <v>176642.9</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K16" s="6">
         <v>136686.5</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L16" s="6">
         <v>168565.9</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M16" s="6">
         <v>212096.2</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N16" s="6">
         <v>151188.79999999999</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O16" s="6">
         <v>51431</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P16" s="6">
         <v>147944.4</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q16" s="6">
         <v>190646.2</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R16" s="6">
         <v>161994.79999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B15"/>
+  <mergeCells count="6">
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C1:N1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
